--- a/DragPrediction/NL2VP DragX/1T/n/7/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1T/n/7/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>1.55555556E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.11150876028688017</v>
+        <v>0.21237338949567</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>6.1891410270586826</v>
+        <v>11.787494135900779</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
-        <v>0.54265171985007032</v>
+        <v>1.033504316286203</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.11308804726307853</v>
+        <v>0.215381211726486</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.53937520576560749</v>
+        <v>1.0272640496017069</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>4.4242430890487607E-2</v>
+        <v>8.4261675796303198E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.54037534461960746</v>
+        <v>1.0291688584960379</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.11718156629287191</v>
+        <v>0.22317750063764999</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.52826994986210329</v>
+        <v>1.0061135962079435</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.1166442852840372</v>
+        <v>0.22215422507917079</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.39213267636808269</v>
+        <v>0.7468341088004784</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.12246832255632645</v>
+        <v>0.2332463628886404</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.16832859965871075</v>
+        <v>0.32058929869374719</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>9.5584359507805791E-2</v>
+        <v>0.1820446605201276</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.3095301276795</v>
+        <v>0.58951388390654758</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>9.7704104688917368E-2</v>
+        <v>0.18608180942055122</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.28070127141297524</v>
+        <v>0.53460804597189604</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.10055380454336778</v>
+        <v>0.19150918943605802</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.21033922590742563</v>
+        <v>0.40060040336679481</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.11916494523818182</v>
+        <v>0.22695493398177599</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.21388406195993803</v>
+        <v>0.40735170116386199</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.11271436326569009</v>
+        <v>0.2146695139466748</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.19695523433729753</v>
+        <v>0.37510999662729838</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.11006619075324793</v>
+        <v>0.20962595171004239</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.12519527973039671</v>
+        <v>0.23843997401459038</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>7.8438567780719018E-2</v>
+        <v>0.1493897382046056</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-5.1809597178396699E-2</v>
+        <v>-9.8673680281924803E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>8.197223055756199E-2</v>
+        <v>0.15611975600161199</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-5.9575905869355378E-2</v>
+        <v>-0.1134649603241856</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>8.8527022927909094E-2</v>
+        <v>0.16860364937061359</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-5.8443125204776868E-2</v>
+        <v>-0.11130752920691041</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>9.3226904520347112E-2</v>
+        <v>0.1775547827295216</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-3.7301645950797525E-2</v>
+        <v>-7.1042642425201211E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>0.11332163243184298</v>
+        <v>0.21582608506109041</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>9.7769886532661165E-2</v>
+        <v>0.18620709386535361</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>0.12151589881669835</v>
+        <v>0.23143242955012439</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-7.7003536941123968E-2</v>
+        <v>-0.1466566581967968</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>7.746235182469835E-2</v>
+        <v>0.14753049153262679</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-4.1861567563797518E-2</v>
+        <v>-7.9727215783347585E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>7.8270307070144624E-2</v>
+        <v>0.14906927820368998</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-4.1583501649933886E-2</v>
+        <v>-7.91976268929456E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>7.7969118683020658E-2</v>
+        <v>0.14849565153538438</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-4.2333646628429748E-2</v>
+        <v>-8.0626311341471996E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>7.3381149534458678E-2</v>
+        <v>0.13975766039930759</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-3.0200433028140496E-2</v>
+        <v>-5.7518066831004001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>6.8388941400000014E-2</v>
+        <v>0.13024977814992</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-2.073619481538843E-2</v>
+        <v>-3.9493004557281594E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>6.3511733061904968E-2</v>
+        <v>0.1209609181233804</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-2.4488937104863637E-2</v>
+        <v>-4.6640269022146796E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>8.3763703592690086E-2</v>
+        <v>0.15953169601136039</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>5.1847641855347112E-2</v>
+        <v>9.8746138059909602E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>8.3631216966495878E-2</v>
+        <v>0.1592793693439728</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>4.9273369780227269E-2</v>
+        <v>9.3843322490345993E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>8.1868060997702483E-2</v>
+        <v>0.1559213604454896</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>5.0374329478425621E-2</v>
+        <v>9.5940149163003599E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>7.7295471438384292E-2</v>
+        <v>0.1472126604206076</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>4.9618205817334712E-2</v>
+        <v>9.4500078047778005E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>7.214257395778513E-2</v>
+        <v>0.13739873817034562</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>3.1085686432165287E-2</v>
+        <v>5.9204071280265599E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>2.9326859290933885E-2</v>
+        <v>5.5854306826250401E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>-8.9346388309400837E-2</v>
+        <v>-0.17016416715285002</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>7.6533115899123969E-2</v>
+        <v>0.14576072041645918</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-4.4828921684342979E-2</v>
+        <v>-8.5378673577272399E-2</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>7.5740956790479347E-2</v>
+        <v>0.14425201818992639</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-4.5931882444338844E-2</v>
+        <v>-8.7479311361051998E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>7.3615575965938027E-2</v>
+        <v>0.14020413595613881</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E85" si="1">A67*$E$1</f>
-        <v>-5.4606885548950414E-2</v>
+        <v>-0.10400124029714639</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>7.049325798627272E-2</v>
+        <v>0.13425754260581518</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>-6.0878327568768598E-2</v>
+        <v>-0.11594548033127279</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>7.1859729998404953E-2</v>
+        <v>0.13686004927991757</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>-7.65378939446405E-2</v>
+        <v>-0.1457698204164852</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>3.7193923485297521E-2</v>
+        <v>7.0837480202392791E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>-0.12849555336085539</v>
+        <v>-0.2447254918103268</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>3.6283448535024798E-2</v>
+        <v>6.9103440197438401E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>-0.12311880648970662</v>
+        <v>-0.23448523844773561</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>2.5703842979132235E-2</v>
+        <v>4.8954111250980002E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>-0.11534813630078926</v>
+        <v>-0.21968565173878438</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>2.5432008943438018E-2</v>
+        <v>4.8436391249500797E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>-0.1035467395845248</v>
+        <v>-0.197209367230122</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>1.7372197576177688E-2</v>
+        <v>3.3086122316754001E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>-7.5752146401347101E-2</v>
+        <v>-0.1442733293010984</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1891,5 +1891,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>